--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251021_201653.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251021_201653.xlsx
@@ -5235,7 +5235,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
